--- a/spliced/falling/2023-03-21_15-38-07/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-38-07/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.9287641048431402</v>
+        <v>-0.3135113716125494</v>
       </c>
       <c r="B2" t="n">
-        <v>1.777486205101013</v>
+        <v>1.868308603763581</v>
       </c>
       <c r="C2" t="n">
-        <v>2.260794490575791</v>
+        <v>2.184598565101624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.95519518852234</v>
+        <v>-0.9287641048431402</v>
       </c>
       <c r="B3" t="n">
-        <v>1.322730630636214</v>
+        <v>1.777486205101013</v>
       </c>
       <c r="C3" t="n">
-        <v>3.281712114810947</v>
+        <v>2.260794490575791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.435981750488281</v>
+        <v>-1.95519518852234</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6166191995143889</v>
+        <v>1.322730630636214</v>
       </c>
       <c r="C4" t="n">
-        <v>5.611798405647279</v>
+        <v>3.281712114810947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7195005416870192</v>
+        <v>-2.435981750488281</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9086291790008577</v>
+        <v>0.6166191995143889</v>
       </c>
       <c r="C5" t="n">
-        <v>3.197041034698503</v>
+        <v>5.611798405647279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.084934711456308</v>
+        <v>-0.7195005416870192</v>
       </c>
       <c r="B6" t="n">
-        <v>2.421984702348714</v>
+        <v>0.9086291790008577</v>
       </c>
       <c r="C6" t="n">
-        <v>10.81555610895159</v>
+        <v>3.197041034698503</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.58544564247131</v>
+        <v>-4.084934711456308</v>
       </c>
       <c r="B7" t="n">
-        <v>2.339941740036011</v>
+        <v>2.421984702348714</v>
       </c>
       <c r="C7" t="n">
-        <v>2.727071173489081</v>
+        <v>10.81555610895159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.705716729164141</v>
+        <v>-1.58544564247131</v>
       </c>
       <c r="B8" t="n">
-        <v>2.451636523008347</v>
+        <v>2.339941740036011</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.786785509437326</v>
+        <v>2.727071173489081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.775958299636823</v>
+        <v>6.705716729164141</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1087797880172783</v>
+        <v>2.451636523008347</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.716480135917668</v>
+        <v>-1.786785509437326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.608189284801471</v>
+        <v>1.775958299636823</v>
       </c>
       <c r="B10" t="n">
-        <v>3.048999667167701</v>
+        <v>-0.1087797880172783</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.210317611694313</v>
+        <v>-4.716480135917668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4491417407989275</v>
+        <v>-5.608189284801471</v>
       </c>
       <c r="B11" t="n">
-        <v>9.55259764939543</v>
+        <v>3.048999667167701</v>
       </c>
       <c r="C11" t="n">
-        <v>3.015977501869205</v>
+        <v>-3.210317611694313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.952256441116321</v>
+        <v>-0.4491417407989275</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07992215082050025</v>
+        <v>9.55259764939543</v>
       </c>
       <c r="C12" t="n">
-        <v>3.550769448280326</v>
+        <v>3.015977501869205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.770977020263648</v>
+        <v>4.952256441116321</v>
       </c>
       <c r="B13" t="n">
-        <v>1.765734553337105</v>
+        <v>0.07992215082050025</v>
       </c>
       <c r="C13" t="n">
-        <v>1.244035243988039</v>
+        <v>3.550769448280326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.673758745193484</v>
+        <v>1.770977020263648</v>
       </c>
       <c r="B14" t="n">
-        <v>3.663176700472833</v>
+        <v>1.765734553337105</v>
       </c>
       <c r="C14" t="n">
-        <v>1.593807518482209</v>
+        <v>1.244035243988039</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.581178307533261</v>
+        <v>-3.673758745193484</v>
       </c>
       <c r="B15" t="n">
-        <v>3.702123820781707</v>
+        <v>3.663176700472833</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.508966445922855</v>
+        <v>1.593807518482209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.404204189777373</v>
+        <v>-2.581178307533261</v>
       </c>
       <c r="B16" t="n">
-        <v>2.937668949365614</v>
+        <v>3.702123820781707</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6700982861220792</v>
+        <v>-1.508966445922855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4647068977355933</v>
+        <v>-1.404204189777373</v>
       </c>
       <c r="B17" t="n">
-        <v>2.649285078048706</v>
+        <v>2.937668949365614</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7614018470048918</v>
+        <v>-0.6700982861220792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.3691325187683139</v>
+        <v>-0.4647068977355933</v>
       </c>
       <c r="B18" t="n">
-        <v>2.143613040447231</v>
+        <v>2.649285078048706</v>
       </c>
       <c r="C18" t="n">
-        <v>1.028705216944218</v>
+        <v>0.7614018470048918</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.8619370460510254</v>
+        <v>-0.3691325187683139</v>
       </c>
       <c r="B19" t="n">
-        <v>1.451581001281739</v>
+        <v>2.143613040447231</v>
       </c>
       <c r="C19" t="n">
-        <v>1.022640809416771</v>
+        <v>1.028705216944218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1582020521163923</v>
+        <v>-0.8619370460510254</v>
       </c>
       <c r="B20" t="n">
-        <v>2.486986517906188</v>
+        <v>1.451581001281739</v>
       </c>
       <c r="C20" t="n">
-        <v>1.129563391208648</v>
+        <v>1.022640809416771</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.2655735015869125</v>
+        <v>0.1582020521163923</v>
       </c>
       <c r="B21" t="n">
-        <v>2.233672142028808</v>
+        <v>2.486986517906188</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9439086914062514</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.07992589473724532</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.95888604223728</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.25704461336136</v>
+        <v>1.129563391208648</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-38-07/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-38-07/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3135113716125494</v>
+        <v>1.19674801826477</v>
       </c>
       <c r="B2" t="n">
-        <v>1.868308603763581</v>
+        <v>1.663910716772079</v>
       </c>
       <c r="C2" t="n">
-        <v>2.184598565101624</v>
+        <v>2.702408194541931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9287641048431402</v>
+        <v>-0.4646213054656981</v>
       </c>
       <c r="B3" t="n">
-        <v>1.777486205101013</v>
+        <v>2.042550325393677</v>
       </c>
       <c r="C3" t="n">
-        <v>2.260794490575791</v>
+        <v>2.406269252300262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.95519518852234</v>
+        <v>-0.3934619426727292</v>
       </c>
       <c r="B4" t="n">
-        <v>1.322730630636214</v>
+        <v>1.991465017199517</v>
       </c>
       <c r="C4" t="n">
-        <v>3.281712114810947</v>
+        <v>1.958218067884445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.435981750488281</v>
+        <v>-0.06526184082031269</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6166191995143889</v>
+        <v>1.843156695365906</v>
       </c>
       <c r="C5" t="n">
-        <v>5.611798405647279</v>
+        <v>2.04642915725708</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.7195005416870192</v>
+        <v>-0.2364732027053833</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9086291790008577</v>
+        <v>1.819270551204681</v>
       </c>
       <c r="C6" t="n">
-        <v>3.197041034698503</v>
+        <v>2.093152940273285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.084934711456308</v>
+        <v>-0.3396859169006348</v>
       </c>
       <c r="B7" t="n">
-        <v>2.421984702348714</v>
+        <v>1.832332909107209</v>
       </c>
       <c r="C7" t="n">
-        <v>10.81555610895159</v>
+        <v>2.310090780258179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.58544564247131</v>
+        <v>-0.2427999973297116</v>
       </c>
       <c r="B8" t="n">
-        <v>2.339941740036011</v>
+        <v>1.836586102843285</v>
       </c>
       <c r="C8" t="n">
-        <v>2.727071173489081</v>
+        <v>2.258781224489212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.705716729164141</v>
+        <v>-0.3135113716125494</v>
       </c>
       <c r="B9" t="n">
-        <v>2.451636523008347</v>
+        <v>1.868308603763581</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.786785509437326</v>
+        <v>2.184598565101624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.775958299636823</v>
+        <v>-0.9287641048431402</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1087797880172783</v>
+        <v>1.777486205101013</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.716480135917668</v>
+        <v>2.260794490575791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.608189284801471</v>
+        <v>-1.95519518852234</v>
       </c>
       <c r="B11" t="n">
-        <v>3.048999667167701</v>
+        <v>1.322730630636214</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.210317611694313</v>
+        <v>3.281712114810947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4491417407989275</v>
+        <v>-2.435981750488281</v>
       </c>
       <c r="B12" t="n">
-        <v>9.55259764939543</v>
+        <v>0.6166191995143889</v>
       </c>
       <c r="C12" t="n">
-        <v>3.015977501869205</v>
+        <v>5.611798405647279</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.952256441116321</v>
+        <v>-0.7195005416870192</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07992215082050025</v>
+        <v>0.9086291790008577</v>
       </c>
       <c r="C13" t="n">
-        <v>3.550769448280326</v>
+        <v>3.197041034698503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.770977020263648</v>
+        <v>-4.084934711456308</v>
       </c>
       <c r="B14" t="n">
-        <v>1.765734553337105</v>
+        <v>2.421984702348714</v>
       </c>
       <c r="C14" t="n">
-        <v>1.244035243988039</v>
+        <v>10.81555610895159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.673758745193484</v>
+        <v>-1.58544564247131</v>
       </c>
       <c r="B15" t="n">
-        <v>3.663176700472833</v>
+        <v>2.339941740036011</v>
       </c>
       <c r="C15" t="n">
-        <v>1.593807518482209</v>
+        <v>2.727071173489081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.581178307533261</v>
+        <v>6.705716729164141</v>
       </c>
       <c r="B16" t="n">
-        <v>3.702123820781707</v>
+        <v>2.451636523008347</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.508966445922855</v>
+        <v>-1.786785509437326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.404204189777373</v>
+        <v>1.775958299636823</v>
       </c>
       <c r="B17" t="n">
-        <v>2.937668949365614</v>
+        <v>-0.1087797880172783</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6700982861220792</v>
+        <v>-4.716480135917668</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4647068977355933</v>
+        <v>-5.608189284801471</v>
       </c>
       <c r="B18" t="n">
-        <v>2.649285078048706</v>
+        <v>3.048999667167701</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7614018470048918</v>
+        <v>-3.210317611694313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3691325187683139</v>
+        <v>-0.4491417407989275</v>
       </c>
       <c r="B19" t="n">
-        <v>2.143613040447231</v>
+        <v>9.55259764939543</v>
       </c>
       <c r="C19" t="n">
-        <v>1.028705216944218</v>
+        <v>3.015977501869205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.8619370460510254</v>
+        <v>4.952256441116321</v>
       </c>
       <c r="B20" t="n">
-        <v>1.451581001281739</v>
+        <v>0.07992215082050025</v>
       </c>
       <c r="C20" t="n">
-        <v>1.022640809416771</v>
+        <v>3.550769448280326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.770977020263648</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.765734553337105</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.244035243988039</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-3.673758745193484</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.663176700472833</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.593807518482209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.581178307533261</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.702123820781707</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.508966445922855</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.404204189777373</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.937668949365614</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.6700982861220792</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.4647068977355933</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.649285078048706</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7614018470048918</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.3691325187683139</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.143613040447231</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.028705216944218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.8619370460510254</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.451581001281739</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.022640809416771</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>0.1582020521163923</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>2.486986517906188</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>1.129563391208648</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.2655735015869125</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.233672142028808</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9439086914062514</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.07992589473724532</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.95888604223728</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.25704461336136</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.3567421436309829</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.357963830232623</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.160924613475799</v>
       </c>
     </row>
   </sheetData>
